--- a/biology/Zoologie/Agrilinus_ater/Agrilinus_ater.xlsx
+++ b/biology/Zoologie/Agrilinus_ater/Agrilinus_ater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrilinus ater (ou Aphodius ater) est une espèce d'insectes de l'ordre des coléoptères, de la famille des Scarabaeidae, de la sous-famille des Aphodiinae, du genre Agrilinus.
 </t>
@@ -508,15 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Répartition
-Habitat</t>
-        </is>
-      </c>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,10 +548,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Morphologie</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,10 +576,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Agrilinus ater est décrite par le biologiste suédois Charles de Geer en 1787. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -591,13 +609,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Agrilinus ater est décrite par le biologiste suédois Charles de Geer en 1787. 
-</t>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce comprend trois variétés selon Modèle:Biofref
+Agrilinus ater ascendens Reiche, 1863
+Agrilinus ater falsarius Reitter, 1892
+Agrilinus ater lucasi (Harold, 1859)</t>
         </is>
       </c>
     </row>
@@ -622,50 +644,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Variétés</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce comprend trois variétés selon Modèle:Biofref
-Agrilinus ater ascendens Reiche, 1863
-Agrilinus ater falsarius Reitter, 1892
-Agrilinus ater lucasi (Harold, 1859)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Agrilinus_ater</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agrilinus_ater</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Aphodius ater (De Geer, 1774) [1]
-Aphodius mediocris Schmidt, 1916[2]
-Aphodius terrenus Stephens, 1830[2]
-Scarabaeus obscurus Marsham, 1802  [2]
-Scarabaeus pusillus Marsham, 1802 [2]
-Scarabaeus terrestris Fabricius, 1775 [2]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aphodius ater (De Geer, 1774) 
+Aphodius mediocris Schmidt, 1916
+Aphodius terrenus Stephens, 1830
+Scarabaeus obscurus Marsham, 1802  
+Scarabaeus pusillus Marsham, 1802 
+Scarabaeus terrestris Fabricius, 1775 </t>
         </is>
       </c>
     </row>
